--- a/Evaluation.xlsx
+++ b/Evaluation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/DHBW/6_ML/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonas/DHBW/6_ML/Projekt/machineLearningAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09D1F04-460E-F841-AC43-B29BFE0ADC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB47E79-BD24-9348-BB23-A79C148AF92C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1420" windowWidth="22140" windowHeight="17560" xr2:uid="{ED4F8C56-0444-9A4E-BC47-4F9105A7EB92}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21140" windowHeight="17460" xr2:uid="{ED4F8C56-0444-9A4E-BC47-4F9105A7EB92}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>naive bayes</t>
   </si>
@@ -59,7 +59,19 @@
     <t>recall</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>support vector machine</t>
+  </si>
+  <si>
+    <t>random forest</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>Algorithmus</t>
+  </si>
+  <si>
+    <t>Durchschnitt</t>
   </si>
 </sst>
 </file>
@@ -67,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -94,7 +106,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,7 +132,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -137,49 +149,196 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -496,11 +655,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D688C-116A-8F45-A9DE-A562A8CD1742}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="176" zoomScaleNormal="176" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -508,110 +665,171 @@
     <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="10.83203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>8</v>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.78849999999999998</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.64690000000000003</v>
-      </c>
-      <c r="D2" s="9">
-        <v>0.307</v>
-      </c>
-      <c r="E2" s="8">
-        <v>0.41639999999999999</v>
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="C2" s="20">
+        <v>0.82579999999999998</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="E2" s="21">
+        <v>0.21609999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.79620000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.83450000000000002</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.2127</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.33900000000000002</v>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.62460000000000004</v>
+      </c>
+      <c r="D3" s="9">
+        <v>0.29859999999999998</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.40400000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.78649999999999998</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0.65180000000000005</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0.28179999999999999</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0.39350000000000002</v>
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.78849999999999998</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.64690000000000003</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.307</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.41639999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0.80110000000000003</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.59160000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.61560000000000004</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.60340000000000005</v>
+      <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.79079999999999995</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.96760000000000002</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.1537</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.26529999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="12">
-        <v>0.78349999999999997</v>
-      </c>
-      <c r="C6" s="12">
-        <v>0.62460000000000004</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.29859999999999998</v>
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.79620000000000002</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.83450000000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2127</v>
       </c>
       <c r="E6" s="13">
-        <v>0.40400000000000003</v>
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.8024</v>
+      </c>
+      <c r="C7" s="9">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.6159</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0.66400000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="25">
+        <f>AVERAGE(B2:B8)</f>
+        <v>0.79841428571428585</v>
+      </c>
+      <c r="C9" s="25">
+        <f>AVERAGE(C2:C8)</f>
+        <v>0.74671428571428577</v>
+      </c>
+      <c r="D9" s="25">
+        <f>AVERAGE(D2:D8)</f>
+        <v>0.33127142857142855</v>
+      </c>
+      <c r="E9" s="26">
+        <f>AVERAGE(E2:E8)</f>
+        <v>0.41568571428571433</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>